--- a/biology/Zoologie/Adelpha_paraena/Adelpha_paraena.xlsx
+++ b/biology/Zoologie/Adelpha_paraena/Adelpha_paraena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha paraena  est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre des Adelpha.
 </t>
@@ -511,17 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha paraena a été décrit par Henry Walter Bates en 1865 sous le nom initial d' Heterochroa paraena[1].
-Sous-espèces
-Adelpha paraena paraena; présent au Venezuela, en Équateur, en Bolivie, au Brésil, en Guyana et en Guyane.
-Adelpha paraena lecromi Willmott, 2003; présent en Colombie.
-Adelpha paraena massilia (C. &amp; R. Felder, [1867]); présent au Mexique et à Panama.
-Adelpha paraena reyi Neild, 1996; dans le nord-ouest du Venezuela.
-Adelpha paraena ssp; présent à Panama et en Colombie[1].
-Noms vernaculaires
-Adelpha paraena massilia se nomme Massilia Sister en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha paraena a été décrit par Henry Walter Bates en 1865 sous le nom initial d' Heterochroa paraena.
 </t>
         </is>
       </c>
@@ -547,16 +553,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelpha paraena est un papillon au dessus marron orné d'une plage jaune proche de l'apex aux ailes antérieures, d'une petite tache jaune à l'angle anal des ailes postérieures, et d'une large bande blanche entre elles.
-Le revers est cuivré taché de blanc avec la même bande blanche que sur le dessus.
-Chenille
-La chenille est beige annelée de vert et développe de très grandes épines[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adelpha paraena paraena; présent au Venezuela, en Équateur, en Bolivie, au Brésil, en Guyana et en Guyane.
+Adelpha paraena lecromi Willmott, 2003; présent en Colombie.
+Adelpha paraena massilia (C. &amp; R. Felder, ); présent au Mexique et à Panama.
+Adelpha paraena reyi Neild, 1996; dans le nord-ouest du Venezuela.
+Adelpha paraena ssp; présent à Panama et en Colombie.</t>
         </is>
       </c>
     </row>
@@ -581,10 +593,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha paraena massilia se nomme Massilia Sister en anglais.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,15 +630,150 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha paraena est un papillon au dessus marron orné d'une plage jaune proche de l'apex aux ailes antérieures, d'une petite tache jaune à l'angle anal des ailes postérieures, et d'une large bande blanche entre elles.
+Le revers est cuivré taché de blanc avec la même bande blanche que sur le dessus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_paraena</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_paraena</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est beige annelée de vert et développe de très grandes épines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adelpha_paraena</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_paraena</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adelpha_paraena</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_paraena</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha paraena est présent  au Mexique, à Panama, au Venezuela,  en Colombie, en Équateur, en Bolivie, au Brésil, en Guyana et en Guyane[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha paraena est présent  au Mexique, à Panama, au Venezuela,  en Colombie, en Équateur, en Bolivie, au Brésil, en Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adelpha_paraena</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_paraena</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
